--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\13_LIB_EWS_RETAIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\13_LIB_EWS_RETAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Library_Formula" sheetId="2" r:id="rId2"/>
     <sheet name="Formula Libraries Labels" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="40">
   <si>
     <t>Action</t>
   </si>
@@ -172,11 +172,68 @@
   <si>
     <t>UNION_INDICATORS</t>
   </si>
+  <si>
+    <t>IND_2</t>
+  </si>
+  <si>
+    <t>IND_6</t>
+  </si>
+  <si>
+    <t>IND_7</t>
+  </si>
+  <si>
+    <t>IND_10</t>
+  </si>
+  <si>
+    <t>IND_11</t>
+  </si>
+  <si>
+    <t>IND_12</t>
+  </si>
+  <si>
+    <t>IND_13</t>
+  </si>
+  <si>
+    <t>IND_15</t>
+  </si>
+  <si>
+    <t>IND_16</t>
+  </si>
+  <si>
+    <t>IND_17</t>
+  </si>
+  <si>
+    <t>IND_18</t>
+  </si>
+  <si>
+    <t>IND_22</t>
+  </si>
+  <si>
+    <t>IND_26</t>
+  </si>
+  <si>
+    <t>IND_27</t>
+  </si>
+  <si>
+    <t>IND_28</t>
+  </si>
+  <si>
+    <t>IND_29</t>
+  </si>
+  <si>
+    <t>IND_31</t>
+  </si>
+  <si>
+    <t>IND_34</t>
+  </si>
+  <si>
+    <t>IND_35</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -766,10 +823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -865,6 +922,329 @@
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -912,6 +1292,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -920,7 +1306,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A0528662C946464F888B6D4F751B664E" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="7eb8da2da6b7d5c53beb1ead2cce6035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b076ddd7a9ae18a4618df1e20c90f69">
     <xsd:element name="properties">
@@ -1034,13 +1420,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1048,7 +1443,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1062,19 +1457,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Library_Formula" sheetId="2" r:id="rId2"/>
     <sheet name="Formula Libraries Labels" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="40">
   <si>
     <t>Action</t>
   </si>
@@ -164,70 +164,70 @@
     <t>Indicatori Italia Retail</t>
   </si>
   <si>
-    <t>UpdateAnalysisUnit_RETAIL</t>
-  </si>
-  <si>
-    <t>updateOutputTable_RETAIL</t>
-  </si>
-  <si>
     <t>UNION_INDICATORS</t>
   </si>
   <si>
-    <t>IND_2</t>
-  </si>
-  <si>
-    <t>IND_6</t>
-  </si>
-  <si>
-    <t>IND_7</t>
-  </si>
-  <si>
-    <t>IND_10</t>
-  </si>
-  <si>
-    <t>IND_11</t>
-  </si>
-  <si>
-    <t>IND_12</t>
-  </si>
-  <si>
-    <t>IND_13</t>
-  </si>
-  <si>
-    <t>IND_15</t>
-  </si>
-  <si>
-    <t>IND_16</t>
-  </si>
-  <si>
-    <t>IND_17</t>
-  </si>
-  <si>
-    <t>IND_18</t>
-  </si>
-  <si>
-    <t>IND_22</t>
-  </si>
-  <si>
-    <t>IND_26</t>
-  </si>
-  <si>
-    <t>IND_27</t>
-  </si>
-  <si>
-    <t>IND_28</t>
-  </si>
-  <si>
-    <t>IND_29</t>
-  </si>
-  <si>
-    <t>IND_31</t>
-  </si>
-  <si>
-    <t>IND_34</t>
-  </si>
-  <si>
-    <t>IND_35</t>
+    <t>INDICATOR_2</t>
+  </si>
+  <si>
+    <t>INDICATOR_6</t>
+  </si>
+  <si>
+    <t>INDICATOR_7</t>
+  </si>
+  <si>
+    <t>INDICATOR_10</t>
+  </si>
+  <si>
+    <t>INDICATOR_11</t>
+  </si>
+  <si>
+    <t>INDICATOR_12</t>
+  </si>
+  <si>
+    <t>INDICATOR_13</t>
+  </si>
+  <si>
+    <t>INDICATOR_15</t>
+  </si>
+  <si>
+    <t>INDICATOR_16</t>
+  </si>
+  <si>
+    <t>INDICATOR_17</t>
+  </si>
+  <si>
+    <t>INDICATOR_18</t>
+  </si>
+  <si>
+    <t>INDICATOR_22</t>
+  </si>
+  <si>
+    <t>INDICATOR_26</t>
+  </si>
+  <si>
+    <t>INDICATOR_27</t>
+  </si>
+  <si>
+    <t>INDICATOR_28</t>
+  </si>
+  <si>
+    <t>INDICATOR_29</t>
+  </si>
+  <si>
+    <t>INDICATOR_31</t>
+  </si>
+  <si>
+    <t>INDICATOR_34</t>
+  </si>
+  <si>
+    <t>INDICATOR_35</t>
+  </si>
+  <si>
+    <t>UpdateAnalysisUnit_IT</t>
+  </si>
+  <si>
+    <t>updateOutputTable_IT</t>
   </si>
 </sst>
 </file>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -868,11 +868,14 @@
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -899,7 +902,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -916,7 +919,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -932,8 +935,8 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -950,7 +953,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -967,7 +970,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -984,7 +987,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -1001,7 +1004,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -1018,7 +1021,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -1035,7 +1038,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1052,7 +1055,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -1069,7 +1072,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
@@ -1086,7 +1089,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
@@ -1103,7 +1106,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -1120,7 +1123,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
@@ -1137,7 +1140,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
@@ -1154,7 +1157,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -1171,7 +1174,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
@@ -1188,7 +1191,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
@@ -1205,7 +1208,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
@@ -1222,7 +1225,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -1239,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
@@ -1292,21 +1295,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A0528662C946464F888B6D4F751B664E" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="7eb8da2da6b7d5c53beb1ead2cce6035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b076ddd7a9ae18a4618df1e20c90f69">
     <xsd:element name="properties">
@@ -1420,30 +1408,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1457,4 +1437,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\13_LIB_EWS_RETAIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\13_LIB_EWS_RETAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="1785" windowWidth="25485" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="4185" yWindow="1785" windowWidth="25485" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="1" r:id="rId1"/>
     <sheet name="Library_Formula" sheetId="2" r:id="rId2"/>
     <sheet name="Formula Libraries Labels" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="103">
   <si>
     <t>Action</t>
   </si>
@@ -228,12 +228,201 @@
   </si>
   <si>
     <t>updateOutputTable_IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATOR_52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATOR_53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATOR_54 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATOR_55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATOR_60 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATOR_61 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATOR_62 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATOR_63 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATOR_64 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATOR_70 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATOR_71 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATOR_80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATOR_81 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATOR_82 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATOR_83 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATOR_84 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATOR_85 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATOR_86 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATOR_87 </t>
+  </si>
+  <si>
+    <t>INDICATOR_100</t>
+  </si>
+  <si>
+    <t>INDICATOR_114</t>
+  </si>
+  <si>
+    <t>INDICATOR_201</t>
+  </si>
+  <si>
+    <t>INDICATOR_202</t>
+  </si>
+  <si>
+    <t>INDICATOR_203</t>
+  </si>
+  <si>
+    <t>INDICATOR_204</t>
+  </si>
+  <si>
+    <t>INDICATOR_205</t>
+  </si>
+  <si>
+    <t>INDICATOR_206</t>
+  </si>
+  <si>
+    <t>INDICATOR_207</t>
+  </si>
+  <si>
+    <t>INDICATOR_208</t>
+  </si>
+  <si>
+    <t>INDICATOR_209</t>
+  </si>
+  <si>
+    <t>INDICATOR_210</t>
+  </si>
+  <si>
+    <t>INDICATOR_211</t>
+  </si>
+  <si>
+    <t>INDICATOR_212</t>
+  </si>
+  <si>
+    <t>INDICATOR_213</t>
+  </si>
+  <si>
+    <t>INDICATOR_214</t>
+  </si>
+  <si>
+    <t>INDICATOR_215</t>
+  </si>
+  <si>
+    <t>INDICATOR_216</t>
+  </si>
+  <si>
+    <t>INDICATOR_217</t>
+  </si>
+  <si>
+    <t>INDICATOR_218</t>
+  </si>
+  <si>
+    <t>INDICATOR_219</t>
+  </si>
+  <si>
+    <t>INDICATOR_220</t>
+  </si>
+  <si>
+    <t>INDICATOR_221</t>
+  </si>
+  <si>
+    <t>INDICATOR_222</t>
+  </si>
+  <si>
+    <t>INDICATOR_223</t>
+  </si>
+  <si>
+    <t>INDICATOR_224</t>
+  </si>
+  <si>
+    <t>INDICATOR_225</t>
+  </si>
+  <si>
+    <t>INDICATOR_226</t>
+  </si>
+  <si>
+    <t>INDICATOR_227</t>
+  </si>
+  <si>
+    <t>INDICATOR_228</t>
+  </si>
+  <si>
+    <t>INDICATOR_229</t>
+  </si>
+  <si>
+    <t>INDICATOR_230</t>
+  </si>
+  <si>
+    <t>INDICATOR_231</t>
+  </si>
+  <si>
+    <t>INDICATOR_106</t>
+  </si>
+  <si>
+    <t>INDICATOR_107</t>
+  </si>
+  <si>
+    <t>INDICATOR_108</t>
+  </si>
+  <si>
+    <t>INDICATOR_109</t>
+  </si>
+  <si>
+    <t>INDICATOR_110</t>
+  </si>
+  <si>
+    <t>INDICATOR_111</t>
+  </si>
+  <si>
+    <t>INDICATOR_112</t>
+  </si>
+  <si>
+    <t>INDICATOR_113</t>
+  </si>
+  <si>
+    <t>INDICATOR_115</t>
+  </si>
+  <si>
+    <t>INDICATOR_116</t>
+  </si>
+  <si>
+    <t>INDICATOR_117</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -782,7 +971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -823,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1248,6 +1437,1077 @@
         <v>13</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1409,18 +2669,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1440,14 +2700,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1460,4 +2712,12 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\13_LIB_EWS_RETAIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\13_LIB_EWS_RETAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="1785" windowWidth="25485" windowHeight="9720"/>
+    <workbookView xWindow="4185" yWindow="1785" windowWidth="25485" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="101">
   <si>
     <t>Action</t>
   </si>
@@ -402,12 +402,6 @@
   </si>
   <si>
     <t>INDICATOR_111</t>
-  </si>
-  <si>
-    <t>INDICATOR_112</t>
-  </si>
-  <si>
-    <t>INDICATOR_113</t>
   </si>
   <si>
     <t>INDICATOR_115</t>
@@ -422,7 +416,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -971,7 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1012,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2474,40 +2468,6 @@
         <v>13</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2555,6 +2515,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A0528662C946464F888B6D4F751B664E" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="7eb8da2da6b7d5c53beb1ead2cce6035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b076ddd7a9ae18a4618df1e20c90f69">
     <xsd:element name="properties">
@@ -2668,33 +2643,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2715,9 +2667,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="103">
   <si>
     <t>Action</t>
   </si>
@@ -411,6 +411,12 @@
   </si>
   <si>
     <t>INDICATOR_117</t>
+  </si>
+  <si>
+    <t>UNION_INDICATORS_PT1</t>
+  </si>
+  <si>
+    <t>UNION_INDICATORS_PT2</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1102,7 +1108,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -1119,7 +1125,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -1135,8 +1141,8 @@
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -1152,8 +1158,8 @@
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -1170,7 +1176,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -1187,7 +1193,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -1204,7 +1210,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -1221,7 +1227,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1238,7 +1244,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -1255,7 +1261,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
@@ -1272,7 +1278,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
@@ -1289,7 +1295,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -1306,7 +1312,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
@@ -1323,7 +1329,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
@@ -1340,7 +1346,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -1357,7 +1363,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
@@ -1374,7 +1380,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
@@ -1391,7 +1397,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
@@ -1408,7 +1414,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -1425,7 +1431,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
@@ -1442,7 +1448,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
@@ -1459,7 +1465,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>13</v>
@@ -1476,7 +1482,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
@@ -1493,7 +1499,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>13</v>
@@ -1510,7 +1516,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
@@ -1527,7 +1533,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>13</v>
@@ -1544,7 +1550,7 @@
         <v>16</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>13</v>
@@ -1561,7 +1567,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>13</v>
@@ -1578,7 +1584,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>13</v>
@@ -1595,7 +1601,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>13</v>
@@ -1612,7 +1618,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>13</v>
@@ -1629,7 +1635,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>13</v>
@@ -1646,7 +1652,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>13</v>
@@ -1663,7 +1669,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>13</v>
@@ -1680,7 +1686,7 @@
         <v>16</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>13</v>
@@ -1697,7 +1703,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>13</v>
@@ -1714,7 +1720,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>13</v>
@@ -1731,7 +1737,7 @@
         <v>16</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>13</v>
@@ -1748,7 +1754,7 @@
         <v>16</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>13</v>
@@ -1765,7 +1771,7 @@
         <v>16</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>13</v>
@@ -1782,7 +1788,7 @@
         <v>16</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>13</v>
@@ -1799,7 +1805,7 @@
         <v>16</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>13</v>
@@ -1816,7 +1822,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>13</v>
@@ -1833,7 +1839,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>13</v>
@@ -1850,7 +1856,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>13</v>
@@ -1867,7 +1873,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>13</v>
@@ -1884,7 +1890,7 @@
         <v>16</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>13</v>
@@ -1901,7 +1907,7 @@
         <v>16</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -1918,7 +1924,7 @@
         <v>16</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -1935,7 +1941,7 @@
         <v>16</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>13</v>
@@ -1952,7 +1958,7 @@
         <v>16</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>13</v>
@@ -1969,7 +1975,7 @@
         <v>16</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>13</v>
@@ -1986,7 +1992,7 @@
         <v>16</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>13</v>
@@ -2003,7 +2009,7 @@
         <v>16</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>13</v>
@@ -2020,7 +2026,7 @@
         <v>16</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>13</v>
@@ -2037,7 +2043,7 @@
         <v>16</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>13</v>
@@ -2054,7 +2060,7 @@
         <v>16</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>13</v>
@@ -2071,7 +2077,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>13</v>
@@ -2088,7 +2094,7 @@
         <v>16</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>13</v>
@@ -2105,7 +2111,7 @@
         <v>16</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>13</v>
@@ -2122,7 +2128,7 @@
         <v>16</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>13</v>
@@ -2139,7 +2145,7 @@
         <v>16</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>13</v>
@@ -2156,7 +2162,7 @@
         <v>16</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>13</v>
@@ -2173,7 +2179,7 @@
         <v>16</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>13</v>
@@ -2190,7 +2196,7 @@
         <v>16</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>13</v>
@@ -2207,7 +2213,7 @@
         <v>16</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>13</v>
@@ -2224,7 +2230,7 @@
         <v>16</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>13</v>
@@ -2241,7 +2247,7 @@
         <v>16</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>13</v>
@@ -2258,7 +2264,7 @@
         <v>16</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>13</v>
@@ -2275,7 +2281,7 @@
         <v>16</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>13</v>
@@ -2292,7 +2298,7 @@
         <v>16</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>13</v>
@@ -2309,7 +2315,7 @@
         <v>16</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>13</v>
@@ -2326,7 +2332,7 @@
         <v>16</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>13</v>
@@ -2343,7 +2349,7 @@
         <v>16</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>13</v>
@@ -2360,7 +2366,7 @@
         <v>16</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>13</v>
@@ -2377,7 +2383,7 @@
         <v>16</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>13</v>
@@ -2394,7 +2400,7 @@
         <v>16</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>13</v>
@@ -2411,7 +2417,7 @@
         <v>16</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>13</v>
@@ -2428,7 +2434,7 @@
         <v>16</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>13</v>
@@ -2445,7 +2451,7 @@
         <v>16</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>13</v>
@@ -2462,12 +2468,46 @@
         <v>16</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="1" t="s">
+      <c r="E87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2515,21 +2555,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A0528662C946464F888B6D4F751B664E" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="7eb8da2da6b7d5c53beb1ead2cce6035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b076ddd7a9ae18a4618df1e20c90f69">
     <xsd:element name="properties">
@@ -2643,30 +2668,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2680,4 +2697,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17870"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\13_LIB_EWS_RETAIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\13_LIB_EWS_RETAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4188" yWindow="1788" windowWidth="25488" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="4185" yWindow="1785" windowWidth="25485" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="112">
   <si>
     <t>Action</t>
   </si>
@@ -420,6 +420,30 @@
   </si>
   <si>
     <t>UNION_INDICATORS_PT3</t>
+  </si>
+  <si>
+    <t>INDICATOR_14</t>
+  </si>
+  <si>
+    <t>INDICATOR_19</t>
+  </si>
+  <si>
+    <t>INDICATOR_20</t>
+  </si>
+  <si>
+    <t>INDICATOR_50</t>
+  </si>
+  <si>
+    <t>INDICATOR_51</t>
+  </si>
+  <si>
+    <t>INDICATOR_200</t>
+  </si>
+  <si>
+    <t>INDICATOR_150</t>
+  </si>
+  <si>
+    <t>INDICATOR_151</t>
   </si>
 </sst>
 </file>
@@ -1002,12 +1026,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="30" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1039,21 +1063,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C96" sqref="C9:C96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="30" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38.41796875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="46.41796875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="46.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="7" width="30" style="3" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1093,7 +1117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1110,7 +1134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1127,7 +1151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1144,7 +1168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,7 +1185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1178,7 +1202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1195,7 +1219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1212,7 +1236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1229,7 +1253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1246,7 +1270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1263,7 +1287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1280,7 +1304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1297,7 +1321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1314,1244 +1338,1380 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="E33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="E40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="E44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="E45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="E47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="E48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="E50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="E51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="E52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="E53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="E55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="E56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="E57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="E58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="E59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="E60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="E61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="E62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="E63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="E64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="E65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="E66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="E67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="E68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="E69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="E70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="E71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="E72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="E73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="E74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="E75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="E76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="E77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="E78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="E79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" s="3" t="s">
+      <c r="E80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="E81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="E82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="E83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="E84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="E85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="E86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="3" t="s">
+      <c r="E87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" s="3" t="s">
+      <c r="E88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="E89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" s="3" t="s">
+      <c r="E90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="3" t="s">
+      <c r="E91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" s="3" t="s">
+      <c r="E92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C88" s="3" t="s">
+      <c r="E93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="1" t="s">
+      <c r="E94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2571,12 +2731,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="30" style="4" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2599,9 +2759,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2719,25 +2882,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2759,9 +2912,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="118">
   <si>
     <t>Action</t>
   </si>
@@ -444,6 +444,24 @@
   </si>
   <si>
     <t>INDICATOR_151</t>
+  </si>
+  <si>
+    <t>INDICATOR_101</t>
+  </si>
+  <si>
+    <t>INDICATOR_102</t>
+  </si>
+  <si>
+    <t>INDICATOR_103</t>
+  </si>
+  <si>
+    <t>INDICATOR_105</t>
+  </si>
+  <si>
+    <t>INDICATOR_112</t>
+  </si>
+  <si>
+    <t>INDICATOR_113</t>
   </si>
 </sst>
 </file>
@@ -1063,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C96" sqref="C9:C96"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1975,7 +1993,7 @@
         <v>16</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -1991,8 +2009,8 @@
       <c r="B54" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>109</v>
+      <c r="C54" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>13</v>
@@ -2009,7 +2027,7 @@
         <v>16</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>13</v>
@@ -2025,8 +2043,8 @@
       <c r="B56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>43</v>
+      <c r="C56" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>13</v>
@@ -2043,7 +2061,7 @@
         <v>16</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>13</v>
@@ -2059,8 +2077,8 @@
       <c r="B58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>45</v>
+      <c r="C58" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>13</v>
@@ -2077,7 +2095,7 @@
         <v>16</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>13</v>
@@ -2094,7 +2112,7 @@
         <v>16</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>13</v>
@@ -2111,7 +2129,7 @@
         <v>16</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>13</v>
@@ -2128,7 +2146,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>13</v>
@@ -2145,7 +2163,7 @@
         <v>16</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>13</v>
@@ -2162,7 +2180,7 @@
         <v>16</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>13</v>
@@ -2179,7 +2197,7 @@
         <v>16</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>13</v>
@@ -2196,7 +2214,7 @@
         <v>16</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>13</v>
@@ -2213,7 +2231,7 @@
         <v>16</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>13</v>
@@ -2230,7 +2248,7 @@
         <v>16</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>13</v>
@@ -2247,7 +2265,7 @@
         <v>16</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>13</v>
@@ -2264,7 +2282,7 @@
         <v>16</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>13</v>
@@ -2281,7 +2299,7 @@
         <v>16</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>13</v>
@@ -2298,7 +2316,7 @@
         <v>16</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>13</v>
@@ -2315,7 +2333,7 @@
         <v>16</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>13</v>
@@ -2332,7 +2350,7 @@
         <v>16</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>13</v>
@@ -2349,7 +2367,7 @@
         <v>16</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>13</v>
@@ -2366,7 +2384,7 @@
         <v>16</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>13</v>
@@ -2383,7 +2401,7 @@
         <v>16</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>13</v>
@@ -2400,7 +2418,7 @@
         <v>16</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>13</v>
@@ -2417,7 +2435,7 @@
         <v>16</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>13</v>
@@ -2434,7 +2452,7 @@
         <v>16</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>13</v>
@@ -2451,7 +2469,7 @@
         <v>16</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>13</v>
@@ -2468,7 +2486,7 @@
         <v>16</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>13</v>
@@ -2485,7 +2503,7 @@
         <v>16</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>13</v>
@@ -2502,7 +2520,7 @@
         <v>16</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>13</v>
@@ -2519,7 +2537,7 @@
         <v>16</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>13</v>
@@ -2536,7 +2554,7 @@
         <v>16</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>13</v>
@@ -2553,7 +2571,7 @@
         <v>16</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>13</v>
@@ -2570,7 +2588,7 @@
         <v>16</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>13</v>
@@ -2587,7 +2605,7 @@
         <v>16</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>13</v>
@@ -2604,7 +2622,7 @@
         <v>16</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>13</v>
@@ -2621,7 +2639,7 @@
         <v>16</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>13</v>
@@ -2638,7 +2656,7 @@
         <v>16</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>13</v>
@@ -2655,7 +2673,7 @@
         <v>16</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>13</v>
@@ -2672,7 +2690,7 @@
         <v>16</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>13</v>
@@ -2688,8 +2706,8 @@
       <c r="B95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>110</v>
+      <c r="C95" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>13</v>
@@ -2705,13 +2723,115 @@
       <c r="B96" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="1" t="s">
+      <c r="E102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2759,15 +2879,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A0528662C946464F888B6D4F751B664E" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="7eb8da2da6b7d5c53beb1ead2cce6035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b076ddd7a9ae18a4618df1e20c90f69">
     <xsd:element name="properties">
@@ -2881,6 +2992,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2888,14 +3008,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2907,6 +3019,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="119">
   <si>
     <t>Action</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>INDICATOR_113</t>
+  </si>
+  <si>
+    <t>UNION_INDICATORS_PT4</t>
   </si>
 </sst>
 </file>
@@ -1081,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1228,7 +1231,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -1245,7 +1248,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -1261,8 +1264,8 @@
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -1279,7 +1282,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -1296,7 +1299,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1313,7 +1316,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -1330,7 +1333,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
@@ -1347,7 +1350,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
@@ -1363,8 +1366,8 @@
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>104</v>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -1381,7 +1384,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
@@ -1397,8 +1400,8 @@
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
@@ -1415,7 +1418,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -1432,7 +1435,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
@@ -1448,8 +1451,8 @@
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>105</v>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
@@ -1466,7 +1469,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
@@ -1482,8 +1485,8 @@
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>30</v>
+      <c r="C23" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -1500,7 +1503,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
@@ -1517,7 +1520,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
@@ -1534,7 +1537,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>13</v>
@@ -1551,7 +1554,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
@@ -1568,7 +1571,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>13</v>
@@ -1585,7 +1588,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
@@ -1602,7 +1605,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>13</v>
@@ -1618,8 +1621,8 @@
       <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>107</v>
+      <c r="C31" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>13</v>
@@ -1636,7 +1639,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>13</v>
@@ -1652,8 +1655,8 @@
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>84</v>
+      <c r="C33" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>13</v>
@@ -1670,7 +1673,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>13</v>
@@ -1687,7 +1690,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>13</v>
@@ -1704,7 +1707,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>13</v>
@@ -1721,7 +1724,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>13</v>
@@ -1738,7 +1741,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>13</v>
@@ -1755,7 +1758,7 @@
         <v>16</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>13</v>
@@ -1772,7 +1775,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>13</v>
@@ -1789,7 +1792,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>13</v>
@@ -1806,7 +1809,7 @@
         <v>16</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>13</v>
@@ -1822,8 +1825,8 @@
       <c r="B43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>94</v>
+      <c r="C43" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>13</v>
@@ -1839,8 +1842,8 @@
       <c r="B44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>95</v>
+      <c r="C44" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>13</v>
@@ -1857,7 +1860,7 @@
         <v>16</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>13</v>
@@ -1874,7 +1877,7 @@
         <v>16</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>13</v>
@@ -1891,7 +1894,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>13</v>
@@ -1908,7 +1911,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>13</v>
@@ -1925,7 +1928,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>13</v>
@@ -1942,7 +1945,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>13</v>
@@ -1959,7 +1962,7 @@
         <v>16</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>13</v>
@@ -1976,7 +1979,7 @@
         <v>16</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -1993,7 +1996,7 @@
         <v>16</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -2010,7 +2013,7 @@
         <v>16</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>13</v>
@@ -2027,7 +2030,7 @@
         <v>16</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>13</v>
@@ -2043,8 +2046,8 @@
       <c r="B56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>115</v>
+      <c r="C56" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>13</v>
@@ -2060,8 +2063,8 @@
       <c r="B57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>41</v>
+      <c r="C57" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>13</v>
@@ -2077,8 +2080,8 @@
       <c r="B58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>109</v>
+      <c r="C58" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>13</v>
@@ -2094,8 +2097,8 @@
       <c r="B59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>42</v>
+      <c r="C59" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>13</v>
@@ -2112,7 +2115,7 @@
         <v>16</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>13</v>
@@ -2129,7 +2132,7 @@
         <v>16</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>13</v>
@@ -2146,7 +2149,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>13</v>
@@ -2163,7 +2166,7 @@
         <v>16</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>13</v>
@@ -2180,7 +2183,7 @@
         <v>16</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>13</v>
@@ -2197,7 +2200,7 @@
         <v>16</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>13</v>
@@ -2214,7 +2217,7 @@
         <v>16</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>13</v>
@@ -2231,7 +2234,7 @@
         <v>16</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>13</v>
@@ -2248,7 +2251,7 @@
         <v>16</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>13</v>
@@ -2265,7 +2268,7 @@
         <v>16</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>13</v>
@@ -2282,7 +2285,7 @@
         <v>16</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>13</v>
@@ -2299,7 +2302,7 @@
         <v>16</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>13</v>
@@ -2316,7 +2319,7 @@
         <v>16</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>13</v>
@@ -2333,7 +2336,7 @@
         <v>16</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>13</v>
@@ -2350,7 +2353,7 @@
         <v>16</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>13</v>
@@ -2367,7 +2370,7 @@
         <v>16</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>13</v>
@@ -2384,7 +2387,7 @@
         <v>16</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>13</v>
@@ -2401,7 +2404,7 @@
         <v>16</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>13</v>
@@ -2418,7 +2421,7 @@
         <v>16</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>13</v>
@@ -2435,7 +2438,7 @@
         <v>16</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>13</v>
@@ -2452,7 +2455,7 @@
         <v>16</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>13</v>
@@ -2469,7 +2472,7 @@
         <v>16</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>13</v>
@@ -2486,7 +2489,7 @@
         <v>16</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>13</v>
@@ -2503,7 +2506,7 @@
         <v>16</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>13</v>
@@ -2520,7 +2523,7 @@
         <v>16</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>13</v>
@@ -2537,7 +2540,7 @@
         <v>16</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>13</v>
@@ -2554,7 +2557,7 @@
         <v>16</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>13</v>
@@ -2571,7 +2574,7 @@
         <v>16</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>13</v>
@@ -2588,7 +2591,7 @@
         <v>16</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>13</v>
@@ -2605,7 +2608,7 @@
         <v>16</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>13</v>
@@ -2622,7 +2625,7 @@
         <v>16</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>13</v>
@@ -2639,7 +2642,7 @@
         <v>16</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>13</v>
@@ -2656,7 +2659,7 @@
         <v>16</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>13</v>
@@ -2673,7 +2676,7 @@
         <v>16</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>13</v>
@@ -2690,7 +2693,7 @@
         <v>16</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>13</v>
@@ -2707,7 +2710,7 @@
         <v>16</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>13</v>
@@ -2724,7 +2727,7 @@
         <v>16</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>13</v>
@@ -2740,8 +2743,8 @@
       <c r="B97" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>117</v>
+      <c r="C97" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>13</v>
@@ -2757,8 +2760,8 @@
       <c r="B98" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>79</v>
+      <c r="C98" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>13</v>
@@ -2775,7 +2778,7 @@
         <v>16</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>13</v>
@@ -2792,7 +2795,7 @@
         <v>16</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>13</v>
@@ -2808,8 +2811,8 @@
       <c r="B101" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>110</v>
+      <c r="C101" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>13</v>
@@ -2826,12 +2829,29 @@
         <v>16</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="1" t="s">
+      <c r="E103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2879,6 +2899,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A0528662C946464F888B6D4F751B664E" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="7eb8da2da6b7d5c53beb1ead2cce6035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b076ddd7a9ae18a4618df1e20c90f69">
     <xsd:element name="properties">
@@ -2992,22 +3027,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3021,27 +3064,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\13_LIB_EWS_RETAIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\13_LIB_EWS_RETAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="121">
   <si>
     <t>Action</t>
   </si>
@@ -465,12 +465,18 @@
   </si>
   <si>
     <t>UNION_INDICATORS_PT4</t>
+  </si>
+  <si>
+    <t>INDICATOR_104</t>
+  </si>
+  <si>
+    <t>INDICATOR_900</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,7 +588,7 @@
         <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -631,7 +637,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -690,7 +696,7 @@
         <xdr:cNvPr id="2052" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -739,7 +745,7 @@
         <xdr:cNvPr id="2" name="AutoShape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1084,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2852,6 +2858,40 @@
         <v>13</v>
       </c>
       <c r="F103" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2899,21 +2939,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A0528662C946464F888B6D4F751B664E" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="7eb8da2da6b7d5c53beb1ead2cce6035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b076ddd7a9ae18a4618df1e20c90f69">
     <xsd:element name="properties">
@@ -3027,17 +3052,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3051,17 +3092,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\13_LIB_EWS_RETAIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\13_LIB_EWS_RETAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="122">
   <si>
     <t>Action</t>
   </si>
@@ -471,12 +471,15 @@
   </si>
   <si>
     <t>INDICATOR_900</t>
+  </si>
+  <si>
+    <t>getAllModulesElaboration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -588,7 +591,7 @@
         <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -637,7 +640,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -696,7 +699,7 @@
         <xdr:cNvPr id="2052" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -745,7 +748,7 @@
         <xdr:cNvPr id="2" name="AutoShape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1090,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1168,8 +1171,8 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
+      <c r="C4" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -1186,7 +1189,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -1203,7 +1206,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -1220,7 +1223,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -1237,7 +1240,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -1254,7 +1257,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -1271,7 +1274,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -1287,8 +1290,8 @@
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -1305,7 +1308,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1322,7 +1325,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -1339,7 +1342,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
@@ -1356,7 +1359,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
@@ -1373,7 +1376,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -1389,8 +1392,8 @@
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>104</v>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
@@ -1407,7 +1410,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
@@ -1423,8 +1426,8 @@
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>27</v>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -1441,7 +1444,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
@@ -1458,7 +1461,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
@@ -1474,8 +1477,8 @@
       <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>105</v>
+      <c r="C22" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
@@ -1492,7 +1495,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -1508,8 +1511,8 @@
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>30</v>
+      <c r="C24" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
@@ -1526,7 +1529,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
@@ -1543,7 +1546,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>13</v>
@@ -1560,7 +1563,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
@@ -1577,7 +1580,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>13</v>
@@ -1594,7 +1597,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
@@ -1611,7 +1614,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>13</v>
@@ -1628,7 +1631,7 @@
         <v>16</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>13</v>
@@ -1644,8 +1647,8 @@
       <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>107</v>
+      <c r="C32" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>13</v>
@@ -1662,7 +1665,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>13</v>
@@ -1678,8 +1681,8 @@
       <c r="B34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>84</v>
+      <c r="C34" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>13</v>
@@ -1696,7 +1699,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>13</v>
@@ -1713,7 +1716,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>13</v>
@@ -1730,7 +1733,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>13</v>
@@ -1747,7 +1750,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>13</v>
@@ -1764,7 +1767,7 @@
         <v>16</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>13</v>
@@ -1781,7 +1784,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>13</v>
@@ -1798,7 +1801,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>13</v>
@@ -1815,7 +1818,7 @@
         <v>16</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>13</v>
@@ -1832,7 +1835,7 @@
         <v>16</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>13</v>
@@ -1848,8 +1851,8 @@
       <c r="B44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>94</v>
+      <c r="C44" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>13</v>
@@ -1865,8 +1868,8 @@
       <c r="B45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>95</v>
+      <c r="C45" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>13</v>
@@ -1883,7 +1886,7 @@
         <v>16</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>13</v>
@@ -1900,7 +1903,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>13</v>
@@ -1917,7 +1920,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>13</v>
@@ -1934,7 +1937,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>13</v>
@@ -1951,7 +1954,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>13</v>
@@ -1968,7 +1971,7 @@
         <v>16</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>13</v>
@@ -1985,7 +1988,7 @@
         <v>16</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -2002,7 +2005,7 @@
         <v>16</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -2019,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>13</v>
@@ -2036,7 +2039,7 @@
         <v>16</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>13</v>
@@ -2053,7 +2056,7 @@
         <v>16</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>13</v>
@@ -2069,8 +2072,8 @@
       <c r="B57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>115</v>
+      <c r="C57" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>13</v>
@@ -2086,8 +2089,8 @@
       <c r="B58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>41</v>
+      <c r="C58" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>13</v>
@@ -2103,8 +2106,8 @@
       <c r="B59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>109</v>
+      <c r="C59" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>13</v>
@@ -2120,8 +2123,8 @@
       <c r="B60" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>42</v>
+      <c r="C60" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>13</v>
@@ -2138,7 +2141,7 @@
         <v>16</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>13</v>
@@ -2155,7 +2158,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>13</v>
@@ -2172,7 +2175,7 @@
         <v>16</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>13</v>
@@ -2189,7 +2192,7 @@
         <v>16</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>13</v>
@@ -2206,7 +2209,7 @@
         <v>16</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>13</v>
@@ -2223,7 +2226,7 @@
         <v>16</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>13</v>
@@ -2240,7 +2243,7 @@
         <v>16</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>13</v>
@@ -2257,7 +2260,7 @@
         <v>16</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>13</v>
@@ -2274,7 +2277,7 @@
         <v>16</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>13</v>
@@ -2291,7 +2294,7 @@
         <v>16</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>13</v>
@@ -2308,7 +2311,7 @@
         <v>16</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>13</v>
@@ -2325,7 +2328,7 @@
         <v>16</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>13</v>
@@ -2342,7 +2345,7 @@
         <v>16</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>13</v>
@@ -2359,7 +2362,7 @@
         <v>16</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>13</v>
@@ -2376,7 +2379,7 @@
         <v>16</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>13</v>
@@ -2393,7 +2396,7 @@
         <v>16</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>13</v>
@@ -2410,7 +2413,7 @@
         <v>16</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>13</v>
@@ -2427,7 +2430,7 @@
         <v>16</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>13</v>
@@ -2444,7 +2447,7 @@
         <v>16</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>13</v>
@@ -2461,7 +2464,7 @@
         <v>16</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>13</v>
@@ -2478,7 +2481,7 @@
         <v>16</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>13</v>
@@ -2495,7 +2498,7 @@
         <v>16</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>13</v>
@@ -2512,7 +2515,7 @@
         <v>16</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>13</v>
@@ -2529,7 +2532,7 @@
         <v>16</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>13</v>
@@ -2546,7 +2549,7 @@
         <v>16</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>13</v>
@@ -2563,7 +2566,7 @@
         <v>16</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>13</v>
@@ -2580,7 +2583,7 @@
         <v>16</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>13</v>
@@ -2597,7 +2600,7 @@
         <v>16</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>13</v>
@@ -2614,7 +2617,7 @@
         <v>16</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>13</v>
@@ -2631,7 +2634,7 @@
         <v>16</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>13</v>
@@ -2648,7 +2651,7 @@
         <v>16</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>13</v>
@@ -2665,7 +2668,7 @@
         <v>16</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>13</v>
@@ -2682,7 +2685,7 @@
         <v>16</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>13</v>
@@ -2699,7 +2702,7 @@
         <v>16</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>13</v>
@@ -2716,7 +2719,7 @@
         <v>16</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>13</v>
@@ -2733,7 +2736,7 @@
         <v>16</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>13</v>
@@ -2750,7 +2753,7 @@
         <v>16</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>13</v>
@@ -2766,8 +2769,8 @@
       <c r="B98" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>117</v>
+      <c r="C98" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>13</v>
@@ -2783,8 +2786,8 @@
       <c r="B99" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>79</v>
+      <c r="C99" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>13</v>
@@ -2801,7 +2804,7 @@
         <v>16</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>13</v>
@@ -2818,7 +2821,7 @@
         <v>16</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>13</v>
@@ -2834,8 +2837,8 @@
       <c r="B102" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>110</v>
+      <c r="C102" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>13</v>
@@ -2852,7 +2855,7 @@
         <v>16</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>13</v>
@@ -2869,7 +2872,7 @@
         <v>16</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>13</v>
@@ -2886,12 +2889,29 @@
         <v>16</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="1" t="s">
+      <c r="E106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2939,6 +2959,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A0528662C946464F888B6D4F751B664E" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="7eb8da2da6b7d5c53beb1ead2cce6035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b076ddd7a9ae18a4618df1e20c90f69">
     <xsd:element name="properties">
@@ -3052,22 +3087,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3081,27 +3124,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="123">
   <si>
     <t>Action</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>getAllModulesElaboration</t>
+  </si>
+  <si>
+    <t>getSingleModules</t>
   </si>
 </sst>
 </file>
@@ -1093,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1171,8 +1174,8 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>121</v>
+      <c r="C4" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -1188,8 +1191,8 @@
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
+      <c r="C5" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -1206,7 +1209,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -1223,7 +1226,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -1240,7 +1243,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -1257,7 +1260,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -1274,7 +1277,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -1291,7 +1294,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -1307,8 +1310,8 @@
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1325,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -1342,7 +1345,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
@@ -1359,7 +1362,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
@@ -1376,7 +1379,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -1393,7 +1396,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
@@ -1409,8 +1412,8 @@
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>104</v>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
@@ -1427,7 +1430,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -1443,8 +1446,8 @@
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>27</v>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
@@ -1461,7 +1464,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
@@ -1478,7 +1481,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
@@ -1494,8 +1497,8 @@
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>105</v>
+      <c r="C23" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -1512,7 +1515,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
@@ -1528,8 +1531,8 @@
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>30</v>
+      <c r="C25" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
@@ -1546,7 +1549,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>13</v>
@@ -1563,7 +1566,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
@@ -1580,7 +1583,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>13</v>
@@ -1597,7 +1600,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
@@ -1614,7 +1617,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>13</v>
@@ -1631,7 +1634,7 @@
         <v>16</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>13</v>
@@ -1648,7 +1651,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>13</v>
@@ -1664,8 +1667,8 @@
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>107</v>
+      <c r="C33" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>13</v>
@@ -1682,7 +1685,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>13</v>
@@ -1698,8 +1701,8 @@
       <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>84</v>
+      <c r="C35" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>13</v>
@@ -1716,7 +1719,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>13</v>
@@ -1733,7 +1736,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>13</v>
@@ -1750,7 +1753,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>13</v>
@@ -1767,7 +1770,7 @@
         <v>16</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>13</v>
@@ -1784,7 +1787,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>13</v>
@@ -1801,7 +1804,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>13</v>
@@ -1818,7 +1821,7 @@
         <v>16</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>13</v>
@@ -1835,7 +1838,7 @@
         <v>16</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>13</v>
@@ -1852,7 +1855,7 @@
         <v>16</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>13</v>
@@ -1868,8 +1871,8 @@
       <c r="B45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>94</v>
+      <c r="C45" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>13</v>
@@ -1885,8 +1888,8 @@
       <c r="B46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>95</v>
+      <c r="C46" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>13</v>
@@ -1903,7 +1906,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>13</v>
@@ -1920,7 +1923,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>13</v>
@@ -1937,7 +1940,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>13</v>
@@ -1954,7 +1957,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>13</v>
@@ -1971,7 +1974,7 @@
         <v>16</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>13</v>
@@ -1988,7 +1991,7 @@
         <v>16</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -2005,7 +2008,7 @@
         <v>16</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -2022,7 +2025,7 @@
         <v>16</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>13</v>
@@ -2039,7 +2042,7 @@
         <v>16</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>13</v>
@@ -2056,7 +2059,7 @@
         <v>16</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>13</v>
@@ -2073,7 +2076,7 @@
         <v>16</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>13</v>
@@ -2089,8 +2092,8 @@
       <c r="B58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>115</v>
+      <c r="C58" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>13</v>
@@ -2106,8 +2109,8 @@
       <c r="B59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>41</v>
+      <c r="C59" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>13</v>
@@ -2123,8 +2126,8 @@
       <c r="B60" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>109</v>
+      <c r="C60" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>13</v>
@@ -2140,8 +2143,8 @@
       <c r="B61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>42</v>
+      <c r="C61" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>13</v>
@@ -2158,7 +2161,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>13</v>
@@ -2175,7 +2178,7 @@
         <v>16</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>13</v>
@@ -2192,7 +2195,7 @@
         <v>16</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>13</v>
@@ -2209,7 +2212,7 @@
         <v>16</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>13</v>
@@ -2226,7 +2229,7 @@
         <v>16</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>13</v>
@@ -2243,7 +2246,7 @@
         <v>16</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>13</v>
@@ -2260,7 +2263,7 @@
         <v>16</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>13</v>
@@ -2277,7 +2280,7 @@
         <v>16</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>13</v>
@@ -2294,7 +2297,7 @@
         <v>16</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>13</v>
@@ -2311,7 +2314,7 @@
         <v>16</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>13</v>
@@ -2328,7 +2331,7 @@
         <v>16</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>13</v>
@@ -2345,7 +2348,7 @@
         <v>16</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>13</v>
@@ -2362,7 +2365,7 @@
         <v>16</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>13</v>
@@ -2379,7 +2382,7 @@
         <v>16</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>13</v>
@@ -2396,7 +2399,7 @@
         <v>16</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>13</v>
@@ -2413,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>13</v>
@@ -2430,7 +2433,7 @@
         <v>16</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>13</v>
@@ -2447,7 +2450,7 @@
         <v>16</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>13</v>
@@ -2464,7 +2467,7 @@
         <v>16</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>13</v>
@@ -2481,7 +2484,7 @@
         <v>16</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>13</v>
@@ -2498,7 +2501,7 @@
         <v>16</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>13</v>
@@ -2515,7 +2518,7 @@
         <v>16</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>13</v>
@@ -2532,7 +2535,7 @@
         <v>16</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>13</v>
@@ -2549,7 +2552,7 @@
         <v>16</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>13</v>
@@ -2566,7 +2569,7 @@
         <v>16</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>13</v>
@@ -2583,7 +2586,7 @@
         <v>16</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>13</v>
@@ -2600,7 +2603,7 @@
         <v>16</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>13</v>
@@ -2617,7 +2620,7 @@
         <v>16</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>13</v>
@@ -2634,7 +2637,7 @@
         <v>16</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>13</v>
@@ -2651,7 +2654,7 @@
         <v>16</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>13</v>
@@ -2668,7 +2671,7 @@
         <v>16</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>13</v>
@@ -2685,7 +2688,7 @@
         <v>16</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>13</v>
@@ -2702,7 +2705,7 @@
         <v>16</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>13</v>
@@ -2719,7 +2722,7 @@
         <v>16</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>13</v>
@@ -2736,7 +2739,7 @@
         <v>16</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>13</v>
@@ -2753,7 +2756,7 @@
         <v>16</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>13</v>
@@ -2770,7 +2773,7 @@
         <v>16</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>13</v>
@@ -2786,8 +2789,8 @@
       <c r="B99" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>117</v>
+      <c r="C99" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>13</v>
@@ -2803,8 +2806,8 @@
       <c r="B100" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>79</v>
+      <c r="C100" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>13</v>
@@ -2821,7 +2824,7 @@
         <v>16</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>13</v>
@@ -2838,7 +2841,7 @@
         <v>16</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>13</v>
@@ -2854,8 +2857,8 @@
       <c r="B103" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>110</v>
+      <c r="C103" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>13</v>
@@ -2872,7 +2875,7 @@
         <v>16</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>13</v>
@@ -2889,7 +2892,7 @@
         <v>16</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>13</v>
@@ -2906,12 +2909,29 @@
         <v>16</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" s="1" t="s">
+      <c r="E107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2959,21 +2979,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A0528662C946464F888B6D4F751B664E" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="7eb8da2da6b7d5c53beb1ead2cce6035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b076ddd7a9ae18a4618df1e20c90f69">
     <xsd:element name="properties">
@@ -3087,17 +3092,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3111,17 +3132,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\13_LIB_EWS_RETAIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\13_LIB_EWS_RETAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="124">
   <si>
     <t>Action</t>
   </si>
@@ -477,12 +477,15 @@
   </si>
   <si>
     <t>getSingleModules</t>
+  </si>
+  <si>
+    <t>INDICATOR_118</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -594,7 +597,7 @@
         <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -643,7 +646,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -702,7 +705,7 @@
         <xdr:cNvPr id="2052" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -751,7 +754,7 @@
         <xdr:cNvPr id="2" name="AutoShape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1096,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2874,8 +2877,8 @@
       <c r="B104" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>110</v>
+      <c r="C104" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>13</v>
@@ -2892,7 +2895,7 @@
         <v>16</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>13</v>
@@ -2909,7 +2912,7 @@
         <v>16</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>13</v>
@@ -2926,12 +2929,29 @@
         <v>16</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="1" t="s">
+      <c r="E108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2979,6 +2999,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A0528662C946464F888B6D4F751B664E" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="7eb8da2da6b7d5c53beb1ead2cce6035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b076ddd7a9ae18a4618df1e20c90f69">
     <xsd:element name="properties">
@@ -3092,22 +3127,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3121,27 +3164,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="125">
   <si>
     <t>Action</t>
   </si>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t>INDICATOR_118</t>
+  </si>
+  <si>
+    <t>INDICATOR_119</t>
   </si>
 </sst>
 </file>
@@ -597,7 +600,7 @@
         <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -646,7 +649,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -705,7 +708,7 @@
         <xdr:cNvPr id="2052" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -754,7 +757,7 @@
         <xdr:cNvPr id="2" name="AutoShape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1099,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:F104"/>
+      <selection activeCell="A104" sqref="A104:F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2894,8 +2897,8 @@
       <c r="B105" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>110</v>
+      <c r="C105" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>13</v>
@@ -2912,7 +2915,7 @@
         <v>16</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>13</v>
@@ -2929,7 +2932,7 @@
         <v>16</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>13</v>
@@ -2946,12 +2949,29 @@
         <v>16</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" s="1" t="s">
+      <c r="E109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2999,21 +3019,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A0528662C946464F888B6D4F751B664E" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="7eb8da2da6b7d5c53beb1ead2cce6035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b076ddd7a9ae18a4618df1e20c90f69">
     <xsd:element name="properties">
@@ -3127,17 +3132,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3151,17 +3172,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/13_LIB_EWS_RETAIL/13_LibFormula.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="129">
   <si>
     <t>Action</t>
   </si>
@@ -483,6 +483,18 @@
   </si>
   <si>
     <t>INDICATOR_119</t>
+  </si>
+  <si>
+    <t>INDICATOR_901</t>
+  </si>
+  <si>
+    <t>INDICATOR_902</t>
+  </si>
+  <si>
+    <t>INDICATOR_903</t>
+  </si>
+  <si>
+    <t>INDICATOR_904</t>
   </si>
 </sst>
 </file>
@@ -600,7 +612,7 @@
         <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -649,7 +661,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -708,7 +720,7 @@
         <xdr:cNvPr id="2052" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -757,7 +769,7 @@
         <xdr:cNvPr id="2" name="AutoShape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1102,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:F105"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2972,6 +2984,74 @@
         <v>13</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3019,6 +3099,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A0528662C946464F888B6D4F751B664E" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="7eb8da2da6b7d5c53beb1ead2cce6035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b076ddd7a9ae18a4618df1e20c90f69">
     <xsd:element name="properties">
@@ -3132,22 +3227,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3161,27 +3264,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>